--- a/data/database/workflows.xlsx
+++ b/data/database/workflows.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PDF</t>
+          <t>XLSX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/database/workflows.xlsx
+++ b/data/database/workflows.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,11 +462,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SIMCE Matemáticas</t>
+          <t>SIMCE Lenguaje</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,214 +476,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PDF</t>
+          <t>XLSX</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-01-28 00:00:00</t>
+          <t>2026-01-30 10:33:11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SIMCE Lenguaje</t>
+          <t>DIA Extraer respuestas correctas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Workflow SIMCE</t>
+          <t>Diagnóstico Integral de Aprendizaje</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>XLSX</t>
+          <t>Excel</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-01-28 23:18:10</t>
+          <t>2026-01-28 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DIA Matemáticas</t>
+          <t>SIMCE Lenguaje (Copia)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Workflow DIA</t>
+          <t>Workflow SIMCE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PDF</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2026-01-28 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DIA Lenguaje</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Diagnóstico Integral de Aprendizaje</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PDF</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2026-01-28 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cálculo Veloz</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Evaluación de habilidades de cálculo mental</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PDF</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2026-01-28 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fluidez Lectora</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Medición de palabras por minuto</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PDF</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2026-01-28 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>En Pullinque Todos Leemos</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Programa de fomento lector</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PDF</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2026-01-28 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PDL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Programa de Desarrollo Lector</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PDF</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2026-01-28 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DIA Extraer respuestas correctas</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Diagnóstico Integral de Aprendizaje</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Excel</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2026-01-28 00:00:00</t>
-        </is>
-      </c>
+          <t>XLSX</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/database/workflows.xlsx
+++ b/data/database/workflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>last_run</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -476,12 +481,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>XLSX</t>
+          <t>PDF</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>2026-01-30 10:33:11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>EXCEL</t>
         </is>
       </c>
     </row>
@@ -501,12 +511,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Excel</t>
+          <t>EXCEL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>2026-01-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PDF</t>
         </is>
       </c>
     </row>
@@ -526,10 +541,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>XLSX</t>
+          <t>EXCEL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EXCEL</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/database/workflows.xlsx
+++ b/data/database/workflows.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-01-30 10:33:11</t>
+          <t>2026-01-30 12:24:12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
